--- a/test/DOC/MyBoard.xlsx
+++ b/test/DOC/MyBoard.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="18195" windowHeight="10035"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Board</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>RESET</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>NWR_RNW</t>
+  </si>
+  <si>
+    <t>NRD_E</t>
+  </si>
+  <si>
+    <t>NRESET</t>
+  </si>
+  <si>
+    <t>DNC_SCL</t>
   </si>
 </sst>
 </file>
@@ -622,15 +637,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:G24"/>
+  <dimension ref="E2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -762,7 +778,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
@@ -771,7 +787,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
@@ -780,7 +796,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
@@ -789,7 +805,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
@@ -799,8 +815,11 @@
       <c r="G20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
@@ -810,8 +829,11 @@
       <c r="G21" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="5" t="s">
         <v>40</v>
       </c>
@@ -821,8 +843,11 @@
       <c r="G22" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="5" t="s">
         <v>41</v>
       </c>
@@ -832,8 +857,11 @@
       <c r="G23" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="6" t="s">
         <v>48</v>
       </c>
@@ -842,6 +870,9 @@
       </c>
       <c r="G24" s="9" t="s">
         <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
